--- a/TheSignal.xlsx
+++ b/TheSignal.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TheSignal.csv" sheetId="1" r:id="rId1"/>
+    <sheet name="0807" sheetId="1" r:id="rId1"/>
+    <sheet name="0808" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" calcMode="manual" concurrentCalc="0"/>
   <extLst>
@@ -70,7 +71,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="h:mm:ss.000\."/>
+    <numFmt numFmtId="176" formatCode="h:mm:ss.000\."/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -132,8 +133,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -149,17 +162,23 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="25">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -167,6 +186,12 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -497,7 +522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -706,4 +731,85 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2">
+        <v>44051.395833333336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="2">
+        <v>44051.395312499997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="2">
+        <v>44051.395543981482</v>
+      </c>
+      <c r="C3" t="str">
+        <f>TEXT(B3-B2, "mm:ss")</f>
+        <v>00:20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="2">
+        <v>44051.396689814814</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" ref="C4:C7" si="0">TEXT(B4-B3, "mm:ss")</f>
+        <v>01:39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="2">
+        <v>44051.396932870368</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>00:21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="2">
+        <v>44051.398078703707</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>01:39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="2">
+        <v>44051.398321759261</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>00:21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/TheSignal.xlsx
+++ b/TheSignal.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="0807" sheetId="1" r:id="rId1"/>
     <sheet name="0808" sheetId="2" r:id="rId2"/>
+    <sheet name="0811" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" calcMode="manual" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="13">
   <si>
     <t>歩行者信号</t>
     <rPh sb="0" eb="5">
@@ -64,6 +65,55 @@
   </si>
   <si>
     <t>青になる時間</t>
+  </si>
+  <si>
+    <t>部屋出る</t>
+    <rPh sb="0" eb="4">
+      <t>ヘヤデ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玄関</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信号着</t>
+    <rPh sb="0" eb="2">
+      <t>シンゴ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤</t>
+    <rPh sb="0" eb="1">
+      <t>アk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玄関まで</t>
+    <rPh sb="0" eb="4">
+      <t>ゲンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部屋まで</t>
+    <rPh sb="0" eb="4">
+      <t>ヘヤマd</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -133,8 +183,110 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -166,7 +318,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="127">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -179,6 +331,57 @@
     <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -192,6 +395,57 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="126" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -737,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -812,4 +1066,631 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2">
+        <v>44054.395833333336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" s="2">
+        <v>44054.390347222223</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="2">
+        <v>44054.3908912037</v>
+      </c>
+      <c r="C3" t="str">
+        <f>TEXT(B3-B2, "mm:ss")</f>
+        <v>00:47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" s="2">
+        <v>44054.393773148149</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" ref="C4:C51" si="0">TEXT(B4-B3, "mm:ss")</f>
+        <v>04:09</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="2">
+        <v>44054.394293981481</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>00:45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="2">
+        <v>44054.394571759258</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>00:24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="2">
+        <v>44054.395810185182</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>01:47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="2">
+        <v>44054.396099537036</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>00:25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="2">
+        <v>44054.397326388891</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>01:46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="2">
+        <v>44054.397604166668</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>00:24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="2">
+        <v>44054.398831018516</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>01:46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="2">
+        <v>44054.399108796293</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>00:24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="2">
+        <v>44054.400613425925</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>02:10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="2">
+        <v>44054.40185185185</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>01:47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="2">
+        <v>44054.402141203704</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>00:25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="2">
+        <v>44054.403368055559</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>01:46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="2">
+        <v>44054.403645833336</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>00:24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="2">
+        <v>44054.404872685183</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>01:46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="2">
+        <v>44054.405150462961</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>00:24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="2">
+        <v>44054.406377314815</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>01:46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="2">
+        <v>44054.406655092593</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>00:24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="2">
+        <v>44054.407858796294</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>01:44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="2">
+        <v>44054.408159722225</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>00:26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="2">
+        <v>44054.409386574072</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>01:46</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="2">
+        <v>44054.40966435185</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>00:24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="2">
+        <v>44054.410891203705</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>01:46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="2">
+        <v>44054.411168981482</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>00:24</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="2">
+        <v>44054.412395833337</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>01:46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="2">
+        <v>44054.412673611114</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>00:24</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="2">
+        <v>44054.413900462961</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>01:46</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="2">
+        <v>44054.414178240739</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>00:24</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="2">
+        <v>44054.415405092594</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>01:46</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="2">
+        <v>44054.415682870371</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>00:24</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="2">
+        <v>44054.416909722226</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>01:46</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="2">
+        <v>44054.417187500003</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>00:24</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="2">
+        <v>44054.418414351851</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>01:46</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="2">
+        <v>44054.418692129628</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>00:24</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="2">
+        <v>44054.419918981483</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>01:46</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="2">
+        <v>44054.42019675926</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>00:24</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="2">
+        <v>44054.421423611115</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>01:46</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="2">
+        <v>44054.421701388892</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>00:24</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="2">
+        <v>44054.422905092593</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>01:44</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="2">
+        <v>44054.423182870371</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>00:24</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="2">
+        <v>44054.424409722225</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>01:46</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="2">
+        <v>44054.424687500003</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>00:24</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="2">
+        <v>44054.425879629627</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>01:43</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="2">
+        <v>44054.426145833335</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>00:23</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="2">
+        <v>44054.427372685182</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>01:46</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="2">
+        <v>44054.42765046296</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>00:24</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="2">
+        <v>44054.430335648147</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>03:52</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="2">
+        <v>44054.431215277778</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>01:16</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/TheSignal.xlsx
+++ b/TheSignal.xlsx
@@ -2,14 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="0807" sheetId="1" r:id="rId1"/>
     <sheet name="0808" sheetId="2" r:id="rId2"/>
     <sheet name="0811" sheetId="3" r:id="rId3"/>
+    <sheet name="0812" sheetId="4" r:id="rId4"/>
+    <sheet name="08144" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" calcMode="manual" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="18">
   <si>
     <t>歩行者信号</t>
     <rPh sb="0" eb="5">
@@ -42,29 +44,6 @@
       <t>アカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>信号ー寮入り口</t>
-    <rPh sb="0" eb="2">
-      <t>シンゴ</t>
-    </rPh>
-    <rPh sb="3" eb="7">
-      <t>リョウイr</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>寮入り口ー自室</t>
-    <rPh sb="0" eb="4">
-      <t>リョウイr</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジシt</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>青になる時間</t>
   </si>
   <si>
     <t>部屋出る</t>
@@ -113,6 +92,53 @@
     <rPh sb="0" eb="4">
       <t>ヘヤマd</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_x0004_</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_x0004_</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部屋</t>
+    <rPh sb="0" eb="2">
+      <t>ヘy</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信号ー玄関</t>
+    <rPh sb="0" eb="2">
+      <t>シンゴ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゲンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玄関ー自室</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジシt</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -183,7 +209,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="127">
+  <cellStyleXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -311,14 +337,131 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="127">
+  <cellStyles count="243">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -382,6 +525,64 @@
     <cellStyle name="ハイパーリンク" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="241" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -446,6 +647,64 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="242" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -796,13 +1055,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -992,7 +1251,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C7"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1072,8 +1331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1092,7 +1351,7 @@
         <v>44054.390347222223</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1104,7 +1363,7 @@
         <v>00:47</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1116,7 +1375,7 @@
         <v>04:09</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1149,7 +1408,7 @@
         <v>01:47</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1173,7 +1432,7 @@
         <v>01:46</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1197,7 +1456,7 @@
         <v>01:46</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1221,7 +1480,7 @@
         <v>02:10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1233,7 +1492,7 @@
         <v>01:47</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1257,7 +1516,7 @@
         <v>01:46</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -1281,7 +1540,7 @@
         <v>01:46</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -1305,7 +1564,7 @@
         <v>01:46</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -1329,7 +1588,7 @@
         <v>01:44</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -1353,7 +1612,7 @@
         <v>01:46</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -1377,7 +1636,7 @@
         <v>01:46</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -1401,7 +1660,7 @@
         <v>01:46</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -1425,7 +1684,7 @@
         <v>01:46</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -1449,7 +1708,7 @@
         <v>01:46</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -1473,7 +1732,7 @@
         <v>01:46</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="2:4">
@@ -1497,7 +1756,7 @@
         <v>01:46</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="2:4">
@@ -1521,7 +1780,7 @@
         <v>01:46</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="2:4">
@@ -1545,7 +1804,7 @@
         <v>01:46</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="2:4">
@@ -1569,7 +1828,7 @@
         <v>01:44</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="2:4">
@@ -1593,7 +1852,7 @@
         <v>01:46</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="2:4">
@@ -1617,7 +1876,7 @@
         <v>01:43</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="2:4">
@@ -1641,7 +1900,7 @@
         <v>01:46</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="2:4">
@@ -1665,7 +1924,7 @@
         <v>03:52</v>
       </c>
       <c r="D50" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="2:4">
@@ -1677,11 +1936,942 @@
         <v>01:16</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="2:4">
       <c r="B52" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2">
+        <v>44055.291666666664</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" s="2">
+        <v>44055.295914351853</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="2">
+        <v>44055.296678240738</v>
+      </c>
+      <c r="C3" t="str">
+        <f>TEXT(B3-B2, "mm:ss")</f>
+        <v>01:06</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" s="2">
+        <v>44055.299525462964</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" ref="C4:C28" si="0">TEXT(B4-B3, "mm:ss")</f>
+        <v>04:06</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="2">
+        <v>44055.300428240742</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>01:18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="2">
+        <v>44055.300671296296</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>00:21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="2">
+        <v>44055.301886574074</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>01:45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="2">
+        <v>44055.302152777775</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>00:23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="2">
+        <v>44055.303298611114</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>01:39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="2">
+        <v>44055.303530092591</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>00:20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="2">
+        <v>44055.304675925923</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>01:39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="2">
+        <v>44055.304930555554</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>00:22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="2">
+        <v>44055.306157407409</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>01:46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="2">
+        <v>44055.306435185186</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>00:24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="2">
+        <v>44055.307500000003</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>01:32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="2">
+        <v>44055.307708333334</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>00:18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="2">
+        <v>44055.308912037035</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>01:44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="2">
+        <v>44055.309166666666</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>00:22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="2">
+        <v>44055.310312499998</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>01:39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="2">
+        <v>44055.310555555552</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>00:21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="2">
+        <v>44055.311701388891</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>01:39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="2">
+        <v>44055.311944444446</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>00:21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="2">
+        <v>44055.313090277778</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>01:39</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="2">
+        <v>44055.313344907408</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>00:22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="2">
+        <v>44055.31449074074</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>01:39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="2">
+        <v>44055.314733796295</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>00:21</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="2">
+        <v>44055.317523148151</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>04:01</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="2">
+        <v>44055.318437499998</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>01:19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="2">
+        <v>44055.391817129632</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="2">
+        <v>44055.392604166664</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" ref="C31:C38" si="1">TEXT(B31-B30, "mm:ss")</f>
+        <v>01:08</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="2">
+        <v>44054.394571759258</v>
+      </c>
+      <c r="F31" t="str">
+        <f>TEXT(E31-E29, "mm:ss")</f>
+        <v>28:11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="2">
+        <v>44055.395451388889</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="1"/>
+        <v>04:06</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="2">
+        <v>44054.395810185182</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" ref="F32:F37" si="2">TEXT(E32-E31, "mm:ss")</f>
+        <v>01:47</v>
+      </c>
+      <c r="G32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="2">
+        <v>44055.396678240744</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="1"/>
+        <v>01:46</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="2">
+        <v>44054.396099537036</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="2"/>
+        <v>00:25</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="2">
+        <v>44055.396979166668</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="1"/>
+        <v>00:26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>44054.397326388891</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="2"/>
+        <v>01:46</v>
+      </c>
+      <c r="G34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="2">
+        <v>44055.398101851853</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="1"/>
+        <v>01:37</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="2">
+        <v>44054.397604166668</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="2"/>
+        <v>00:24</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="2">
+        <v>44055.398344907408</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="1"/>
+        <v>00:21</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
+        <v>44054.398831018516</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="2"/>
+        <v>01:46</v>
+      </c>
+      <c r="G36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="2">
+        <v>44055.399571759262</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="1"/>
+        <v>01:46</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="2">
+        <v>44054.399108796293</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="2"/>
+        <v>00:24</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="2">
+        <v>44055.39984953704</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="1"/>
+        <v>00:24</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="2"/>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="2"/>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2">
+        <v>44055.291666666664</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" s="2">
+        <v>44057.306481481479</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" s="2">
+        <v>44057.307476851849</v>
+      </c>
+      <c r="C3" t="str">
+        <f>TEXT(B3-B2, "mm:ss")</f>
+        <v>01:26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="2">
+        <v>44057.310254629629</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" ref="C4:C14" si="0">TEXT(B4-B3, "mm:ss")</f>
+        <v>04:00</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="2">
+        <v>44057.31108796296</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>01:12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="2">
+        <v>44057.311331018522</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>00:21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>44055.311701388891</v>
+      </c>
+      <c r="G6" t="str">
+        <f>TEXT(F6-F5, "mm:ss")</f>
+        <v>28:51</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" ref="I6:I7" si="1">(MINUTE(F6)-MINUTE(B5))*60+(SECOND(F6)-SECOND(B5))</f>
+        <v>53</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6:J11" si="2">I6/2</f>
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="2">
+        <v>44057.312523148146</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>01:43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44055.311944444446</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" ref="G6:I13" si="3">TEXT(F7-F6, "mm:ss")</f>
+        <v>00:21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="2">
+        <v>44057.312719907408</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>00:17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>44055.313090277778</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="3"/>
+        <v>01:39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="4">
+        <f>(MINUTE(F8)-MINUTE(B7))*60+(SECOND(F8)-SECOND(B7))</f>
+        <v>49</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="2">
+        <v>44057.31386574074</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>01:39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2">
+        <v>44055.313344907408</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="3"/>
+        <v>00:22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" ref="I9:I13" si="4">(MINUTE(F9)-MINUTE(B8))*60+(SECOND(F9)-SECOND(B8))</f>
+        <v>54</v>
+      </c>
+      <c r="J9">
+        <f>I9/2</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="2">
+        <v>44057.314108796294</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>00:21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>44055.31449074074</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="3"/>
+        <v>01:39</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="2">
+        <v>44057.315254629626</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>01:39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="2">
+        <v>44055.314733796295</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="3"/>
+        <v>00:21</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="2">
+        <v>44057.315497685187</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>00:21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>44055.317523148151</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="3"/>
+        <v>04:01</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="2">
+        <v>44057.318310185183</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>04:03</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="2">
+        <v>44055.318437499998</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="3"/>
+        <v>01:19</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="2">
+        <v>44057.319143518522</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>01:12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="2"/>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="2"/>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
